--- a/apprentice_enter.xlsx
+++ b/apprentice_enter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7885F-B716-4132-B34F-C9CF9954765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD07F55-1D9A-4DD6-8F7C-C5BADE5CA945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>שם פרטי</t>
   </si>
@@ -162,9 +162,6 @@
     <t>און עלי</t>
   </si>
   <si>
-    <t>547277803</t>
-  </si>
-  <si>
     <t>אשדוד</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>רווק</t>
   </si>
   <si>
-    <t>548386833</t>
-  </si>
-  <si>
     <t>קרית ארבע</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>organgiy@gmail.com</t>
   </si>
   <si>
-    <t>586060699</t>
-  </si>
-  <si>
     <t>פתח תקווה</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>asaforzel@gmail.com</t>
   </si>
   <si>
-    <t>535233054</t>
-  </si>
-  <si>
     <t>לוד</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>סיירות</t>
   </si>
   <si>
-    <t>586751116</t>
-  </si>
-  <si>
     <t>אפרת</t>
   </si>
   <si>
@@ -292,6 +277,12 @@
   </si>
   <si>
     <t>עורפי</t>
+  </si>
+  <si>
+    <t>מלווה</t>
+  </si>
+  <si>
+    <t>יומהולדת</t>
   </si>
 </sst>
 </file>
@@ -325,11 +316,11 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="David"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,7 +372,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,13 +599,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD660"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -637,7 +634,7 @@
     <col min="22" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -701,25 +698,31 @@
       <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="V1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
+      <c r="B2" s="1">
+        <v>549247617</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -731,29 +734,29 @@
         <v>544867080</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3">
         <v>547777915</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>3</v>
@@ -761,26 +764,34 @@
       <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="4"/>
+      <c r="U2" s="4">
+        <v>313387349</v>
+      </c>
+      <c r="V2" s="7">
+        <v>36188</v>
+      </c>
+      <c r="W2" s="1">
+        <v>549247616</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
+      <c r="B3" s="1">
+        <v>549247618</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -792,54 +803,62 @@
         <v>505590676</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="3">
         <v>506224162</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="U3" s="4">
+        <v>313387349</v>
+      </c>
+      <c r="V3" s="7">
+        <v>36189</v>
+      </c>
+      <c r="W3" s="1">
+        <v>549247616</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
+      <c r="B4" s="1">
+        <v>549247619</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
@@ -851,52 +870,60 @@
         <v>546060599</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="3">
         <v>524700929</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="U4" s="4">
+        <v>313387349</v>
+      </c>
+      <c r="V4" s="7">
+        <v>36190</v>
+      </c>
+      <c r="W4" s="1">
+        <v>549247616</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
+      <c r="B5" s="1">
+        <v>549247620</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -908,13 +935,13 @@
         <v>526071600</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K5" s="3">
         <v>526071610</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>18</v>
@@ -923,90 +950,106 @@
         <v>18</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="4">
+        <v>313387349</v>
+      </c>
+      <c r="V5" s="7">
+        <v>36191</v>
+      </c>
+      <c r="W5" s="1">
+        <v>549247616</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>73</v>
+      <c r="B6" s="1">
+        <v>549247621</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3">
         <v>545664626</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" s="3">
         <v>585665002</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="U6" s="4">
+        <v>313387349</v>
+      </c>
+      <c r="V6" s="7">
+        <v>36192</v>
+      </c>
+      <c r="W6" s="1">
+        <v>549247616</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>